--- a/out/test/Figori_algorithm_3.xlsx
+++ b/out/test/Figori_algorithm_3.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.68945000000000001</v>
+        <v>0.69089999999999996</v>
       </c>
       <c r="B1">
-        <v>0.68705000000000005</v>
+        <v>0.45689999999999997</v>
       </c>
       <c r="C1">
-        <v>0.45745000000000002</v>
+        <v>0.68989999999999996</v>
       </c>
       <c r="D1">
-        <v>0.70025000000000004</v>
+        <v>0.68389999999999995</v>
       </c>
       <c r="E1">
-        <v>0.68374999999999997</v>
+        <v>0.67174999999999996</v>
       </c>
       <c r="F1">
-        <v>0.69810000000000005</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="G1">
-        <v>0.45329999999999998</v>
+        <v>0.69310000000000005</v>
       </c>
       <c r="H1">
-        <v>0.67579999999999996</v>
+        <v>0.45465</v>
       </c>
       <c r="I1">
-        <v>0.69074999999999998</v>
+        <v>0.68905000000000005</v>
       </c>
       <c r="J1">
-        <v>0.67325000000000002</v>
+        <v>0.68984999999999996</v>
       </c>
       <c r="K1">
-        <v>0.45574999999999999</v>
+        <v>0.45529999999999998</v>
       </c>
       <c r="L1">
+        <v>0.68884999999999996</v>
+      </c>
+      <c r="M1">
+        <v>0.68505000000000005</v>
+      </c>
+      <c r="N1">
+        <v>0.68654999999999999</v>
+      </c>
+      <c r="O1">
+        <v>0.69489999999999996</v>
+      </c>
+      <c r="P1">
+        <v>0.67730000000000001</v>
+      </c>
+      <c r="Q1">
+        <v>0.67984999999999995</v>
+      </c>
+      <c r="R1">
+        <v>0.68855</v>
+      </c>
+      <c r="S1">
         <v>0.69169999999999998</v>
       </c>
-      <c r="M1">
-        <v>0.69969999999999999</v>
-      </c>
-      <c r="N1">
-        <v>0.45495000000000002</v>
-      </c>
-      <c r="O1">
-        <v>0.67884999999999995</v>
-      </c>
-      <c r="P1">
-        <v>0.68015000000000003</v>
-      </c>
-      <c r="Q1">
-        <v>0.68769999999999998</v>
-      </c>
-      <c r="R1">
-        <v>0.68320000000000003</v>
-      </c>
-      <c r="S1">
-        <v>0.45595000000000002</v>
-      </c>
       <c r="T1">
-        <v>0.68430000000000002</v>
+        <v>0.68515000000000004</v>
       </c>
       <c r="U1">
-        <v>0.67220000000000002</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="V1">
-        <v>0.67535000000000001</v>
+        <v>0.69925000000000004</v>
       </c>
       <c r="W1">
-        <v>0.68530000000000002</v>
+        <v>0.67864999999999998</v>
       </c>
       <c r="X1">
+        <v>0.68159999999999998</v>
+      </c>
+      <c r="Y1">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="Z1">
         <v>0.6845</v>
       </c>
-      <c r="Y1">
-        <v>0.69159999999999999</v>
-      </c>
-      <c r="Z1">
-        <v>0.68479999999999996</v>
-      </c>
       <c r="AA1">
-        <v>0.67805000000000004</v>
+        <v>0.68225000000000002</v>
       </c>
       <c r="AB1">
-        <v>0.68145</v>
+        <v>0.67610000000000003</v>
       </c>
       <c r="AC1">
-        <v>0.68435000000000001</v>
+        <v>0.68105000000000004</v>
       </c>
       <c r="AD1">
-        <v>0.69055</v>
+        <v>0.69155</v>
       </c>
       <c r="AE1">
-        <v>0.68535000000000001</v>
+        <v>0.67474999999999996</v>
       </c>
       <c r="AF1">
-        <v>0.45555000000000001</v>
+        <v>0.45669999999999999</v>
       </c>
       <c r="AG1">
-        <v>0.68964999999999999</v>
+        <v>0.68654999999999999</v>
       </c>
       <c r="AH1">
-        <v>0.68689999999999996</v>
+        <v>0.67949999999999999</v>
       </c>
       <c r="AI1">
-        <v>0.6764</v>
+        <v>0.45065</v>
       </c>
       <c r="AJ1">
-        <v>0.6885</v>
+        <v>0.69305000000000005</v>
       </c>
       <c r="AK1">
-        <v>0.69189999999999996</v>
+        <v>0.69440000000000002</v>
       </c>
       <c r="AL1">
-        <v>0.68740000000000001</v>
+        <v>0.69140000000000001</v>
       </c>
       <c r="AM1">
-        <v>0.69099999999999995</v>
+        <v>0.68759999999999999</v>
       </c>
       <c r="AN1">
         <v>0.67674999999999996</v>
       </c>
       <c r="AO1">
-        <v>0.67945</v>
+        <v>0.45710000000000001</v>
       </c>
       <c r="AP1">
-        <v>0.69610000000000005</v>
+        <v>0.68284999999999996</v>
       </c>
       <c r="AQ1">
-        <v>0.69164999999999999</v>
+        <v>0.68225000000000002</v>
       </c>
       <c r="AR1">
-        <v>0.69230000000000003</v>
+        <v>0.69105000000000005</v>
       </c>
       <c r="AS1">
-        <v>0.68759999999999999</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="AT1">
-        <v>0.69220000000000004</v>
+        <v>0.68530000000000002</v>
       </c>
       <c r="AU1">
-        <v>0.68054999999999999</v>
+        <v>0.45334999999999998</v>
       </c>
       <c r="AV1">
-        <v>0.45645000000000002</v>
+        <v>0.68369999999999997</v>
       </c>
       <c r="AW1">
-        <v>0.68630000000000002</v>
+        <v>0.45115</v>
       </c>
       <c r="AX1">
-        <v>0.67584999999999995</v>
+        <v>0.68089999999999995</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.66935</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="B2">
-        <v>0.66879999999999995</v>
+        <v>0.4304</v>
       </c>
       <c r="C2">
-        <v>0.42835000000000001</v>
+        <v>0.66254999999999997</v>
       </c>
       <c r="D2">
-        <v>0.67484999999999995</v>
+        <v>0.65249999999999997</v>
       </c>
       <c r="E2">
-        <v>0.64070000000000005</v>
+        <v>0.65680000000000005</v>
       </c>
       <c r="F2">
-        <v>0.92684999999999995</v>
+        <v>0.66764999999999997</v>
       </c>
       <c r="G2">
-        <v>0.44069999999999998</v>
+        <v>0.68210000000000004</v>
       </c>
       <c r="H2">
-        <v>0.66644999999999999</v>
+        <v>0.44255</v>
       </c>
       <c r="I2">
-        <v>0.6764</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="J2">
-        <v>0.66935</v>
+        <v>0.67605000000000004</v>
       </c>
       <c r="K2">
+        <v>0.43595</v>
+      </c>
+      <c r="L2">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="M2">
+        <v>0.67625000000000002</v>
+      </c>
+      <c r="N2">
+        <v>0.67625000000000002</v>
+      </c>
+      <c r="O2">
+        <v>0.67995000000000005</v>
+      </c>
+      <c r="P2">
+        <v>0.64054999999999995</v>
+      </c>
+      <c r="Q2">
+        <v>0.67974999999999997</v>
+      </c>
+      <c r="R2">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="S2">
+        <v>0.67669999999999997</v>
+      </c>
+      <c r="T2">
+        <v>0.66905000000000003</v>
+      </c>
+      <c r="U2">
+        <v>0.63575000000000004</v>
+      </c>
+      <c r="V2">
+        <v>0.65559999999999996</v>
+      </c>
+      <c r="W2">
+        <v>0.66944999999999999</v>
+      </c>
+      <c r="X2">
+        <v>0.64380000000000004</v>
+      </c>
+      <c r="Y2">
         <v>0.43974999999999997</v>
       </c>
-      <c r="L2">
-        <v>0.67845</v>
-      </c>
-      <c r="M2">
-        <v>0.67010000000000003</v>
-      </c>
-      <c r="N2">
-        <v>0.44419999999999998</v>
-      </c>
-      <c r="O2">
-        <v>0.65144999999999997</v>
-      </c>
-      <c r="P2">
-        <v>0.65905000000000002</v>
-      </c>
-      <c r="Q2">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="R2">
-        <v>0.91469999999999996</v>
-      </c>
-      <c r="S2">
-        <v>0.44040000000000001</v>
-      </c>
-      <c r="T2">
-        <v>0.67220000000000002</v>
-      </c>
-      <c r="U2">
-        <v>0.66149999999999998</v>
-      </c>
-      <c r="V2">
-        <v>0.65915000000000001</v>
-      </c>
-      <c r="W2">
-        <v>0.65885000000000005</v>
-      </c>
-      <c r="X2">
-        <v>0.68079999999999996</v>
-      </c>
-      <c r="Y2">
-        <v>0.65705000000000002</v>
-      </c>
       <c r="Z2">
-        <v>0.66679999999999995</v>
+        <v>0.66764999999999997</v>
       </c>
       <c r="AA2">
-        <v>0.66754999999999998</v>
+        <v>0.64675000000000005</v>
       </c>
       <c r="AB2">
-        <v>0.67735000000000001</v>
+        <v>0.66959999999999997</v>
       </c>
       <c r="AC2">
-        <v>0.6724</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="AD2">
-        <v>0.65725</v>
+        <v>0.67715000000000003</v>
       </c>
       <c r="AE2">
-        <v>0.67745</v>
+        <v>0.66895000000000004</v>
       </c>
       <c r="AF2">
-        <v>0.67325000000000002</v>
+        <v>0.44024999999999997</v>
       </c>
       <c r="AG2">
-        <v>0.67995000000000005</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="AH2">
-        <v>0.68625000000000003</v>
+        <v>0.65615000000000001</v>
       </c>
       <c r="AI2">
-        <v>0.68689999999999996</v>
+        <v>0.43735000000000002</v>
       </c>
       <c r="AJ2">
-        <v>0.66359999999999997</v>
+        <v>0.67674999999999996</v>
       </c>
       <c r="AK2">
-        <v>0.67464999999999997</v>
+        <v>0.67064999999999997</v>
       </c>
       <c r="AL2">
-        <v>0.67249999999999999</v>
+        <v>0.67369999999999997</v>
       </c>
       <c r="AM2">
-        <v>0.69259999999999999</v>
+        <v>0.68095000000000006</v>
       </c>
       <c r="AN2">
-        <v>0.65690000000000004</v>
+        <v>0.63214999999999999</v>
       </c>
       <c r="AO2">
-        <v>0.65154999999999996</v>
+        <v>0.44690000000000002</v>
       </c>
       <c r="AP2">
-        <v>0.67184999999999995</v>
+        <v>0.64859999999999995</v>
       </c>
       <c r="AQ2">
-        <v>0.6825</v>
+        <v>0.66969999999999996</v>
       </c>
       <c r="AR2">
-        <v>0.67884999999999995</v>
+        <v>0.68430000000000002</v>
       </c>
       <c r="AS2">
-        <v>0.66490000000000005</v>
+        <v>0.64834999999999998</v>
       </c>
       <c r="AT2">
-        <v>0.69094999999999995</v>
+        <v>0.90525</v>
       </c>
       <c r="AU2">
-        <v>0.66854999999999998</v>
+        <v>0.44619999999999999</v>
       </c>
       <c r="AV2">
-        <v>0.43080000000000002</v>
+        <v>0.66790000000000005</v>
       </c>
       <c r="AW2">
-        <v>0.71125000000000005</v>
+        <v>0.45284999999999997</v>
       </c>
       <c r="AX2">
-        <v>0.66205000000000003</v>
+        <v>0.67025000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.63990000000000002</v>
+        <v>0.61234999999999995</v>
       </c>
       <c r="B3">
-        <v>0.82709999999999995</v>
+        <v>0.41304999999999997</v>
       </c>
       <c r="C3">
-        <v>0.41785</v>
+        <v>0.62160000000000004</v>
       </c>
       <c r="D3">
-        <v>0.94399999999999995</v>
+        <v>0.59660000000000002</v>
       </c>
       <c r="E3">
-        <v>0.87649999999999995</v>
+        <v>0.62265000000000004</v>
       </c>
       <c r="F3">
-        <v>0.86519999999999997</v>
+        <v>0.68640000000000001</v>
       </c>
       <c r="G3">
-        <v>0.40184999999999998</v>
+        <v>0.63270000000000004</v>
       </c>
       <c r="H3">
-        <v>0.62334999999999996</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="I3">
-        <v>0.92874999999999996</v>
+        <v>0.88785000000000003</v>
       </c>
       <c r="J3">
+        <v>0.64759999999999995</v>
+      </c>
+      <c r="K3">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="L3">
         <v>0.64070000000000005</v>
       </c>
-      <c r="K3">
-        <v>0.60645000000000004</v>
-      </c>
-      <c r="L3">
-        <v>0.63880000000000003</v>
-      </c>
       <c r="M3">
-        <v>0.64915</v>
+        <v>0.69750000000000001</v>
       </c>
       <c r="N3">
-        <v>0.41344999999999998</v>
+        <v>0.91105000000000003</v>
       </c>
       <c r="O3">
-        <v>0.60445000000000004</v>
+        <v>0.60740000000000005</v>
       </c>
       <c r="P3">
-        <v>0.62444999999999995</v>
+        <v>0.5897</v>
       </c>
       <c r="Q3">
-        <v>0.64980000000000004</v>
+        <v>0.65459999999999996</v>
       </c>
       <c r="R3">
-        <v>0.93864999999999998</v>
+        <v>0.82269999999999999</v>
       </c>
       <c r="S3">
-        <v>0.41654999999999998</v>
+        <v>0.60840000000000005</v>
       </c>
       <c r="T3">
-        <v>0.66625000000000001</v>
+        <v>0.66544999999999999</v>
       </c>
       <c r="U3">
-        <v>0.61639999999999995</v>
+        <v>0.58384999999999998</v>
       </c>
       <c r="V3">
-        <v>0.61514999999999997</v>
+        <v>0.5867</v>
       </c>
       <c r="W3">
-        <v>0.63275000000000003</v>
+        <v>0.60329999999999995</v>
       </c>
       <c r="X3">
-        <v>0.66725000000000001</v>
+        <v>0.58355000000000001</v>
       </c>
       <c r="Y3">
-        <v>0.59814999999999996</v>
+        <v>0.66180000000000005</v>
       </c>
       <c r="Z3">
-        <v>0.61009999999999998</v>
+        <v>0.81340000000000001</v>
       </c>
       <c r="AA3">
-        <v>0.83560000000000001</v>
+        <v>0.58714999999999995</v>
       </c>
       <c r="AB3">
-        <v>0.64970000000000006</v>
+        <v>0.62085000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.87350000000000005</v>
+        <v>0.89464999999999995</v>
       </c>
       <c r="AD3">
-        <v>0.85019999999999996</v>
+        <v>0.63295000000000001</v>
       </c>
       <c r="AE3">
-        <v>0.65395000000000003</v>
+        <v>0.60940000000000005</v>
       </c>
       <c r="AF3">
-        <v>0.82565</v>
+        <v>0.40465000000000001</v>
       </c>
       <c r="AG3">
-        <v>0.89229999999999998</v>
+        <v>0.63590000000000002</v>
       </c>
       <c r="AH3">
-        <v>0.67495000000000005</v>
+        <v>0.62065000000000003</v>
       </c>
       <c r="AI3">
-        <v>0.63595000000000002</v>
+        <v>0.3957</v>
       </c>
       <c r="AJ3">
-        <v>0.61350000000000005</v>
+        <v>0.69684999999999997</v>
       </c>
       <c r="AK3">
-        <v>0.6603</v>
+        <v>0.59184999999999999</v>
       </c>
       <c r="AL3">
-        <v>0.63895000000000002</v>
+        <v>0.63549999999999995</v>
       </c>
       <c r="AM3">
-        <v>0.63854999999999995</v>
+        <v>0.84724999999999995</v>
       </c>
       <c r="AN3">
-        <v>0.63</v>
+        <v>0.60870000000000002</v>
       </c>
       <c r="AO3">
-        <v>0.58520000000000005</v>
+        <v>0.42185</v>
       </c>
       <c r="AP3">
-        <v>0.63905000000000001</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="AQ3">
-        <v>0.64300000000000002</v>
+        <v>0.65790000000000004</v>
       </c>
       <c r="AR3">
-        <v>0.67974999999999997</v>
+        <v>0.65364999999999995</v>
       </c>
       <c r="AS3">
-        <v>0.68899999999999995</v>
+        <v>0.68930000000000002</v>
       </c>
       <c r="AT3">
-        <v>0.61650000000000005</v>
+        <v>0.83055000000000001</v>
       </c>
       <c r="AU3">
-        <v>0.63605</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="AV3">
-        <v>0.3821</v>
+        <v>0.62509999999999999</v>
       </c>
       <c r="AW3">
-        <v>0.67125000000000001</v>
+        <v>0.42920000000000003</v>
       </c>
       <c r="AX3">
-        <v>0.57950000000000002</v>
+        <v>0.61399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.81879999999999997</v>
+        <v>0.54384999999999994</v>
       </c>
       <c r="B4">
-        <v>0.7913</v>
+        <v>0.3755</v>
       </c>
       <c r="C4">
-        <v>0.33184999999999998</v>
+        <v>0.57665</v>
       </c>
       <c r="D4">
-        <v>0.86539999999999995</v>
+        <v>0.62250000000000005</v>
       </c>
       <c r="E4">
-        <v>0.81259999999999999</v>
+        <v>0.54074999999999995</v>
       </c>
       <c r="F4">
-        <v>0.80554999999999999</v>
+        <v>0.90075000000000005</v>
       </c>
       <c r="G4">
-        <v>0.37425000000000003</v>
+        <v>0.59445000000000003</v>
       </c>
       <c r="H4">
-        <v>0.52495000000000003</v>
+        <v>0.38035000000000002</v>
       </c>
       <c r="I4">
-        <v>0.93315000000000003</v>
+        <v>0.83174999999999999</v>
       </c>
       <c r="J4">
-        <v>0.56064999999999998</v>
+        <v>0.58435000000000004</v>
       </c>
       <c r="K4">
-        <v>0.61009999999999998</v>
+        <v>0.56955</v>
       </c>
       <c r="L4">
-        <v>0.57835000000000003</v>
+        <v>0.56035000000000001</v>
       </c>
       <c r="M4">
-        <v>0.92810000000000004</v>
+        <v>0.65880000000000005</v>
       </c>
       <c r="N4">
-        <v>0.36580000000000001</v>
+        <v>0.88214999999999999</v>
       </c>
       <c r="O4">
-        <v>0.87265000000000004</v>
+        <v>0.51060000000000005</v>
       </c>
       <c r="P4">
-        <v>0.57440000000000002</v>
+        <v>0.5464</v>
       </c>
       <c r="Q4">
-        <v>0.60394999999999999</v>
+        <v>0.86019999999999996</v>
       </c>
       <c r="R4">
-        <v>0.95145000000000002</v>
+        <v>0.75860000000000005</v>
       </c>
       <c r="S4">
-        <v>0.76724999999999999</v>
+        <v>0.55915000000000004</v>
       </c>
       <c r="T4">
-        <v>0.66654999999999998</v>
+        <v>0.64629999999999999</v>
       </c>
       <c r="U4">
-        <v>0.74414999999999998</v>
+        <v>0.50209999999999999</v>
       </c>
       <c r="V4">
-        <v>0.58855000000000002</v>
+        <v>0.58989999999999998</v>
       </c>
       <c r="W4">
-        <v>0.62450000000000006</v>
+        <v>0.55794999999999995</v>
       </c>
       <c r="X4">
-        <v>0.58479999999999999</v>
+        <v>0.54964999999999997</v>
       </c>
       <c r="Y4">
-        <v>0.54625000000000001</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="Z4">
-        <v>0.55805000000000005</v>
+        <v>0.73624999999999996</v>
       </c>
       <c r="AA4">
-        <v>0.77100000000000002</v>
+        <v>0.51165000000000005</v>
       </c>
       <c r="AB4">
-        <v>0.59924999999999995</v>
+        <v>0.5847</v>
       </c>
       <c r="AC4">
-        <v>0.8417</v>
+        <v>0.81620000000000004</v>
       </c>
       <c r="AD4">
-        <v>0.76205000000000001</v>
+        <v>0.78874999999999995</v>
       </c>
       <c r="AE4">
-        <v>0.88</v>
+        <v>0.55569999999999997</v>
       </c>
       <c r="AF4">
-        <v>0.74824999999999997</v>
+        <v>0.35375000000000001</v>
       </c>
       <c r="AG4">
-        <v>0.82740000000000002</v>
+        <v>0.59509999999999996</v>
       </c>
       <c r="AH4">
-        <v>0.63749999999999996</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="AI4">
-        <v>0.53779999999999994</v>
+        <v>0.54215000000000002</v>
       </c>
       <c r="AJ4">
-        <v>0.52215</v>
+        <v>0.81345000000000001</v>
       </c>
       <c r="AK4">
-        <v>0.63019999999999998</v>
+        <v>0.57420000000000004</v>
       </c>
       <c r="AL4">
-        <v>0.57340000000000002</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="AM4">
-        <v>0.59555000000000002</v>
+        <v>0.75865000000000005</v>
       </c>
       <c r="AN4">
-        <v>0.53354999999999997</v>
+        <v>0.52949999999999997</v>
       </c>
       <c r="AO4">
-        <v>0.52524999999999999</v>
+        <v>0.3876</v>
       </c>
       <c r="AP4">
-        <v>0.57750000000000001</v>
+        <v>0.5454</v>
       </c>
       <c r="AQ4">
-        <v>0.57920000000000005</v>
+        <v>0.86755000000000004</v>
       </c>
       <c r="AR4">
-        <v>0.85129999999999995</v>
+        <v>0.62934999999999997</v>
       </c>
       <c r="AS4">
-        <v>0.65734999999999999</v>
+        <v>0.66995000000000005</v>
       </c>
       <c r="AT4">
-        <v>0.54654999999999998</v>
+        <v>0.81955</v>
       </c>
       <c r="AU4">
-        <v>0.56859999999999999</v>
+        <v>0.60950000000000004</v>
       </c>
       <c r="AV4">
-        <v>0.55600000000000005</v>
+        <v>0.59970000000000001</v>
       </c>
       <c r="AW4">
-        <v>0.66174999999999995</v>
+        <v>0.37835000000000002</v>
       </c>
       <c r="AX4">
-        <v>0.54430000000000001</v>
+        <v>0.56254999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.84430000000000005</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="B5">
-        <v>0.77490000000000003</v>
+        <v>0.29985000000000001</v>
       </c>
       <c r="C5">
+        <v>0.50080000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.55525000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.81194999999999995</v>
+      </c>
+      <c r="F5">
+        <v>0.89075000000000004</v>
+      </c>
+      <c r="G5">
+        <v>0.61119999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.30814999999999998</v>
+      </c>
+      <c r="I5">
+        <v>0.79679999999999995</v>
+      </c>
+      <c r="J5">
+        <v>0.58804999999999996</v>
+      </c>
+      <c r="K5">
+        <v>0.46375</v>
+      </c>
+      <c r="L5">
+        <v>0.72719999999999996</v>
+      </c>
+      <c r="M5">
+        <v>0.63009999999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.78864999999999996</v>
+      </c>
+      <c r="O5">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.48554999999999998</v>
+      </c>
+      <c r="Q5">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="R5">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="S5">
+        <v>0.47875000000000001</v>
+      </c>
+      <c r="T5">
+        <v>0.57550000000000001</v>
+      </c>
+      <c r="U5">
+        <v>0.62634999999999996</v>
+      </c>
+      <c r="V5">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="W5">
+        <v>0.44774999999999998</v>
+      </c>
+      <c r="X5">
+        <v>0.4572</v>
+      </c>
+      <c r="Y5">
+        <v>0.54625000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>0.77569999999999995</v>
+      </c>
+      <c r="AA5">
+        <v>0.41810000000000003</v>
+      </c>
+      <c r="AB5">
+        <v>0.65629999999999999</v>
+      </c>
+      <c r="AC5">
+        <v>0.94255</v>
+      </c>
+      <c r="AD5">
+        <v>0.83074999999999999</v>
+      </c>
+      <c r="AE5">
+        <v>0.46675</v>
+      </c>
+      <c r="AF5">
+        <v>0.31569999999999998</v>
+      </c>
+      <c r="AG5">
+        <v>0.57245000000000001</v>
+      </c>
+      <c r="AH5">
+        <v>0.42504999999999998</v>
+      </c>
+      <c r="AI5">
         <v>0.44864999999999999</v>
       </c>
-      <c r="D5">
-        <v>0.79625000000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.71970000000000001</v>
-      </c>
-      <c r="F5">
-        <v>0.71125000000000005</v>
-      </c>
-      <c r="G5">
-        <v>0.32124999999999998</v>
-      </c>
-      <c r="H5">
-        <v>0.40529999999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.90039999999999998</v>
-      </c>
-      <c r="J5">
-        <v>0.50744999999999996</v>
-      </c>
-      <c r="K5">
-        <v>0.70169999999999999</v>
-      </c>
-      <c r="L5">
-        <v>0.48615000000000003</v>
-      </c>
-      <c r="M5">
-        <v>0.92374999999999996</v>
-      </c>
-      <c r="N5">
-        <v>0.49945000000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.81740000000000002</v>
-      </c>
-      <c r="P5">
-        <v>0.84850000000000003</v>
-      </c>
-      <c r="Q5">
-        <v>0.83050000000000002</v>
-      </c>
-      <c r="R5">
-        <v>0.91595000000000004</v>
-      </c>
-      <c r="S5">
-        <v>0.56374999999999997</v>
-      </c>
-      <c r="T5">
-        <v>0.63334999999999997</v>
-      </c>
-      <c r="U5">
-        <v>0.67774999999999996</v>
-      </c>
-      <c r="V5">
-        <v>0.53625</v>
-      </c>
-      <c r="W5">
-        <v>0.53125</v>
-      </c>
-      <c r="X5">
-        <v>0.88460000000000005</v>
-      </c>
-      <c r="Y5">
-        <v>0.43919999999999998</v>
-      </c>
-      <c r="Z5">
-        <v>0.56705000000000005</v>
-      </c>
-      <c r="AA5">
-        <v>0.70545000000000002</v>
-      </c>
-      <c r="AB5">
-        <v>0.50419999999999998</v>
-      </c>
-      <c r="AC5">
-        <v>0.70504999999999995</v>
-      </c>
-      <c r="AD5">
-        <v>0.59524999999999995</v>
-      </c>
-      <c r="AE5">
-        <v>0.7772</v>
-      </c>
-      <c r="AF5">
-        <v>0.67969999999999997</v>
-      </c>
-      <c r="AG5">
-        <v>0.85755000000000003</v>
-      </c>
-      <c r="AH5">
-        <v>0.61685000000000001</v>
-      </c>
-      <c r="AI5">
-        <v>0.43559999999999999</v>
-      </c>
       <c r="AJ5">
-        <v>0.44985000000000003</v>
+        <v>0.88505</v>
       </c>
       <c r="AK5">
-        <v>0.54205000000000003</v>
+        <v>0.60970000000000002</v>
       </c>
       <c r="AL5">
-        <v>0.61245000000000005</v>
+        <v>0.76654999999999995</v>
       </c>
       <c r="AM5">
-        <v>0.55645</v>
+        <v>0.67495000000000005</v>
       </c>
       <c r="AN5">
-        <v>0.61495</v>
+        <v>0.46034999999999998</v>
       </c>
       <c r="AO5">
-        <v>0.58745000000000003</v>
+        <v>0.29120000000000001</v>
       </c>
       <c r="AP5">
-        <v>0.53805000000000003</v>
+        <v>0.44269999999999998</v>
       </c>
       <c r="AQ5">
-        <v>0.45334999999999998</v>
+        <v>0.87944999999999995</v>
       </c>
       <c r="AR5">
-        <v>0.74424999999999997</v>
+        <v>0.62849999999999995</v>
       </c>
       <c r="AS5">
-        <v>0.62519999999999998</v>
+        <v>0.63260000000000005</v>
       </c>
       <c r="AT5">
-        <v>0.83494999999999997</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="AU5">
-        <v>0.60940000000000005</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="AV5">
-        <v>0.56105000000000005</v>
+        <v>0.49985000000000002</v>
       </c>
       <c r="AW5">
-        <v>0.64039999999999997</v>
+        <v>0.32795000000000002</v>
       </c>
       <c r="AX5">
-        <v>0.4889</v>
+        <v>0.41189999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.7893</v>
+        <v>0.41454999999999997</v>
       </c>
       <c r="B6">
-        <v>0.77115</v>
+        <v>0.31209999999999999</v>
       </c>
       <c r="C6">
-        <v>0.72619999999999996</v>
+        <v>0.70074999999999998</v>
       </c>
       <c r="D6">
-        <v>0.70455000000000001</v>
+        <v>0.78420000000000001</v>
       </c>
       <c r="E6">
-        <v>0.82120000000000004</v>
+        <v>0.77475000000000005</v>
       </c>
       <c r="F6">
-        <v>0.73199999999999998</v>
+        <v>0.80379999999999996</v>
       </c>
       <c r="G6">
-        <v>0.2341</v>
+        <v>0.78520000000000001</v>
       </c>
       <c r="H6">
-        <v>0.30854999999999999</v>
+        <v>0.30764999999999998</v>
       </c>
       <c r="I6">
-        <v>0.89759999999999995</v>
+        <v>0.83704999999999996</v>
       </c>
       <c r="J6">
-        <v>0.53859999999999997</v>
+        <v>0.46105000000000002</v>
       </c>
       <c r="K6">
-        <v>0.70584999999999998</v>
+        <v>0.57189999999999996</v>
       </c>
       <c r="L6">
-        <v>0.53920000000000001</v>
+        <v>0.56264999999999998</v>
       </c>
       <c r="M6">
-        <v>0.89559999999999995</v>
+        <v>0.67969999999999997</v>
       </c>
       <c r="N6">
-        <v>0.51724999999999999</v>
+        <v>0.68515000000000004</v>
       </c>
       <c r="O6">
-        <v>0.81164999999999998</v>
+        <v>0.32569999999999999</v>
       </c>
       <c r="P6">
-        <v>0.69984999999999997</v>
+        <v>0.58689999999999998</v>
       </c>
       <c r="Q6">
-        <v>0.62575000000000003</v>
+        <v>0.87129999999999996</v>
       </c>
       <c r="R6">
-        <v>0.83940000000000003</v>
+        <v>0.65890000000000004</v>
       </c>
       <c r="S6">
-        <v>0.60050000000000003</v>
+        <v>0.39029999999999998</v>
       </c>
       <c r="T6">
-        <v>0.58015000000000005</v>
+        <v>0.41170000000000001</v>
       </c>
       <c r="U6">
-        <v>0.66605000000000003</v>
+        <v>0.65964999999999996</v>
       </c>
       <c r="V6">
-        <v>0.39755000000000001</v>
+        <v>0.51054999999999995</v>
       </c>
       <c r="W6">
-        <v>0.44259999999999999</v>
+        <v>0.439</v>
       </c>
       <c r="X6">
-        <v>0.97150000000000003</v>
+        <v>0.35239999999999999</v>
       </c>
       <c r="Y6">
-        <v>0.54600000000000004</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="Z6">
-        <v>0.4209</v>
+        <v>0.71120000000000005</v>
       </c>
       <c r="AA6">
-        <v>0.65780000000000005</v>
+        <v>0.50519999999999998</v>
       </c>
       <c r="AB6">
-        <v>0.32834999999999998</v>
+        <v>0.63554999999999995</v>
       </c>
       <c r="AC6">
-        <v>0.80910000000000004</v>
+        <v>0.8226</v>
       </c>
       <c r="AD6">
-        <v>0.4662</v>
+        <v>0.76329999999999998</v>
       </c>
       <c r="AE6">
-        <v>0.65629999999999999</v>
+        <v>0.37509999999999999</v>
       </c>
       <c r="AF6">
-        <v>0.80330000000000001</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="AG6">
-        <v>0.78820000000000001</v>
+        <v>0.46045000000000003</v>
       </c>
       <c r="AH6">
-        <v>0.55989999999999995</v>
+        <v>0.28644999999999998</v>
       </c>
       <c r="AI6">
-        <v>0.49890000000000001</v>
+        <v>0.32555000000000001</v>
       </c>
       <c r="AJ6">
-        <v>0.38614999999999999</v>
+        <v>0.92430000000000001</v>
       </c>
       <c r="AK6">
-        <v>0.67125000000000001</v>
+        <v>0.72750000000000004</v>
       </c>
       <c r="AL6">
-        <v>0.57679999999999998</v>
+        <v>0.72414999999999996</v>
       </c>
       <c r="AM6">
-        <v>0.47489999999999999</v>
+        <v>0.54135</v>
       </c>
       <c r="AN6">
-        <v>0.55879999999999996</v>
+        <v>0.41149999999999998</v>
       </c>
       <c r="AO6">
-        <v>0.7087</v>
+        <v>0.21004999999999999</v>
       </c>
       <c r="AP6">
-        <v>0.37945000000000001</v>
+        <v>0.33905000000000002</v>
       </c>
       <c r="AQ6">
-        <v>0.35754999999999998</v>
+        <v>0.7802</v>
       </c>
       <c r="AR6">
-        <v>0.67264999999999997</v>
+        <v>0.77095000000000002</v>
       </c>
       <c r="AS6">
-        <v>0.59219999999999995</v>
+        <v>0.54425000000000001</v>
       </c>
       <c r="AT6">
-        <v>0.76844999999999997</v>
+        <v>0.81520000000000004</v>
       </c>
       <c r="AU6">
-        <v>0.74675000000000002</v>
+        <v>0.63819999999999999</v>
       </c>
       <c r="AV6">
-        <v>0.50519999999999998</v>
+        <v>0.50544999999999995</v>
       </c>
       <c r="AW6">
-        <v>0.63500000000000001</v>
+        <v>0.35944999999999999</v>
       </c>
       <c r="AX6">
-        <v>0.73914999999999997</v>
+        <v>0.52544999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.72975000000000001</v>
+        <v>0.51070000000000004</v>
       </c>
       <c r="B7">
-        <v>0.59145000000000003</v>
+        <v>0.45190000000000002</v>
       </c>
       <c r="C7">
-        <v>0.80810000000000004</v>
+        <v>0.68269999999999997</v>
       </c>
       <c r="D7">
-        <v>0.81689999999999996</v>
+        <v>0.73494999999999999</v>
       </c>
       <c r="E7">
-        <v>0.79220000000000002</v>
+        <v>0.68545</v>
       </c>
       <c r="F7">
-        <v>0.58694999999999997</v>
+        <v>0.67174999999999996</v>
       </c>
       <c r="G7">
-        <v>0.14280000000000001</v>
+        <v>0.74414999999999998</v>
       </c>
       <c r="H7">
-        <v>0.63039999999999996</v>
+        <v>0.64910000000000001</v>
       </c>
       <c r="I7">
-        <v>0.82909999999999995</v>
+        <v>0.78049999999999997</v>
       </c>
       <c r="J7">
-        <v>0.55164999999999997</v>
+        <v>0.36370000000000002</v>
       </c>
       <c r="K7">
-        <v>0.82350000000000001</v>
+        <v>0.47425</v>
       </c>
       <c r="L7">
-        <v>0.37275000000000003</v>
+        <v>0.44950000000000001</v>
       </c>
       <c r="M7">
-        <v>0.82869999999999999</v>
+        <v>0.50614999999999999</v>
       </c>
       <c r="N7">
-        <v>0.55530000000000002</v>
+        <v>0.64490000000000003</v>
       </c>
       <c r="O7">
-        <v>0.66869999999999996</v>
+        <v>0.18385000000000001</v>
       </c>
       <c r="P7">
-        <v>0.64829999999999999</v>
+        <v>0.32790000000000002</v>
       </c>
       <c r="Q7">
-        <v>0.52964999999999995</v>
+        <v>0.88824999999999998</v>
       </c>
       <c r="R7">
-        <v>0.93989999999999996</v>
+        <v>0.62004999999999999</v>
       </c>
       <c r="S7">
-        <v>0.41854999999999998</v>
+        <v>0.3236</v>
       </c>
       <c r="T7">
-        <v>0.74509999999999998</v>
+        <v>0.43585000000000002</v>
       </c>
       <c r="U7">
-        <v>0.62009999999999998</v>
+        <v>0.88105</v>
       </c>
       <c r="V7">
-        <v>0.40575</v>
+        <v>0.48035</v>
       </c>
       <c r="W7">
-        <v>0.65754999999999997</v>
+        <v>0.35894999999999999</v>
       </c>
       <c r="X7">
-        <v>0.94274999999999998</v>
+        <v>0.46444999999999997</v>
       </c>
       <c r="Y7">
-        <v>0.63824999999999998</v>
+        <v>0.43880000000000002</v>
       </c>
       <c r="Z7">
-        <v>0.36170000000000002</v>
+        <v>0.60335000000000005</v>
       </c>
       <c r="AA7">
-        <v>0.57850000000000001</v>
+        <v>0.64805000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.38190000000000002</v>
+        <v>0.73529999999999995</v>
       </c>
       <c r="AC7">
-        <v>0.77090000000000003</v>
+        <v>0.64270000000000005</v>
       </c>
       <c r="AD7">
-        <v>0.54710000000000003</v>
+        <v>0.94315000000000004</v>
       </c>
       <c r="AE7">
-        <v>0.60289999999999999</v>
+        <v>0.50119999999999998</v>
       </c>
       <c r="AF7">
-        <v>0.76949999999999996</v>
+        <v>0.56755</v>
       </c>
       <c r="AG7">
-        <v>0.71904999999999997</v>
+        <v>0.32695000000000002</v>
       </c>
       <c r="AH7">
-        <v>0.52805000000000002</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="AI7">
-        <v>0.47920000000000001</v>
+        <v>0.35049999999999998</v>
       </c>
       <c r="AJ7">
-        <v>0.32990000000000003</v>
+        <v>0.77849999999999997</v>
       </c>
       <c r="AK7">
-        <v>0.48780000000000001</v>
+        <v>0.51390000000000002</v>
       </c>
       <c r="AL7">
-        <v>0.47585</v>
+        <v>0.57909999999999995</v>
       </c>
       <c r="AM7">
-        <v>0.29685</v>
+        <v>0.61334999999999995</v>
       </c>
       <c r="AN7">
-        <v>0.53049999999999997</v>
+        <v>0.35265000000000002</v>
       </c>
       <c r="AO7">
-        <v>0.61570000000000003</v>
+        <v>0.2591</v>
       </c>
       <c r="AP7">
-        <v>0.41560000000000002</v>
+        <v>0.20230000000000001</v>
       </c>
       <c r="AQ7">
-        <v>0.2409</v>
+        <v>0.73594999999999999</v>
       </c>
       <c r="AR7">
-        <v>0.79100000000000004</v>
+        <v>0.75529999999999997</v>
       </c>
       <c r="AS7">
-        <v>0.71779999999999999</v>
+        <v>0.49349999999999999</v>
       </c>
       <c r="AT7">
-        <v>0.54790000000000005</v>
+        <v>0.63644999999999996</v>
       </c>
       <c r="AU7">
-        <v>0.56630000000000003</v>
+        <v>0.50370000000000004</v>
       </c>
       <c r="AV7">
-        <v>0.53705000000000003</v>
+        <v>0.50724999999999998</v>
       </c>
       <c r="AW7">
-        <v>0.83674999999999999</v>
+        <v>0.28139999999999998</v>
       </c>
       <c r="AX7">
-        <v>0.66610000000000003</v>
+        <v>0.58084999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.68969999999999998</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="B8">
-        <v>0.42315000000000003</v>
+        <v>0.57974999999999999</v>
       </c>
       <c r="C8">
-        <v>0.61829999999999996</v>
+        <v>0.57194999999999996</v>
       </c>
       <c r="D8">
-        <v>0.65095000000000003</v>
+        <v>0.93935000000000002</v>
       </c>
       <c r="E8">
-        <v>0.58055000000000001</v>
+        <v>0.59904999999999997</v>
       </c>
       <c r="F8">
-        <v>0.76615</v>
+        <v>0.76734999999999998</v>
       </c>
       <c r="G8">
-        <v>3.805E-2</v>
+        <v>0.81589999999999996</v>
       </c>
       <c r="H8">
-        <v>0.76715</v>
+        <v>0.56545000000000001</v>
       </c>
       <c r="I8">
-        <v>0.5282</v>
+        <v>0.64749999999999996</v>
       </c>
       <c r="J8">
-        <v>0.52839999999999998</v>
+        <v>0.28854999999999997</v>
       </c>
       <c r="K8">
-        <v>0.65890000000000004</v>
+        <v>0.31374999999999997</v>
       </c>
       <c r="L8">
-        <v>0.16675000000000001</v>
+        <v>0.56140000000000001</v>
       </c>
       <c r="M8">
-        <v>0.82420000000000004</v>
+        <v>0.80269999999999997</v>
       </c>
       <c r="N8">
-        <v>0.53210000000000002</v>
+        <v>0.45519999999999999</v>
       </c>
       <c r="O8">
-        <v>0.91364999999999996</v>
+        <v>9.4549999999999995E-2</v>
       </c>
       <c r="P8">
-        <v>0.53644999999999998</v>
+        <v>0.38095000000000001</v>
       </c>
       <c r="Q8">
-        <v>0.39024999999999999</v>
+        <v>0.91435</v>
       </c>
       <c r="R8">
-        <v>0.89185000000000003</v>
+        <v>0.55149999999999999</v>
       </c>
       <c r="S8">
-        <v>0.28715000000000002</v>
+        <v>0.52605000000000002</v>
       </c>
       <c r="T8">
-        <v>0.76070000000000004</v>
+        <v>0.48980000000000001</v>
       </c>
       <c r="U8">
-        <v>0.87980000000000003</v>
+        <v>0.91830000000000001</v>
       </c>
       <c r="V8">
-        <v>0.41620000000000001</v>
+        <v>0.51695000000000002</v>
       </c>
       <c r="W8">
-        <v>0.51964999999999995</v>
+        <v>0.50834999999999997</v>
       </c>
       <c r="X8">
-        <v>0.7964</v>
+        <v>0.46484999999999999</v>
       </c>
       <c r="Y8">
-        <v>0.73919999999999997</v>
+        <v>0.30709999999999998</v>
       </c>
       <c r="Z8">
-        <v>0.61229999999999996</v>
+        <v>0.58440000000000003</v>
       </c>
       <c r="AA8">
-        <v>0.53185000000000004</v>
+        <v>0.56394999999999995</v>
       </c>
       <c r="AB8">
-        <v>0.50375000000000003</v>
+        <v>0.79810000000000003</v>
       </c>
       <c r="AC8">
-        <v>0.96335000000000004</v>
+        <v>0.60319999999999996</v>
       </c>
       <c r="AD8">
-        <v>0.46060000000000001</v>
+        <v>0.68335000000000001</v>
       </c>
       <c r="AE8">
-        <v>0.73524999999999996</v>
+        <v>0.30225000000000002</v>
       </c>
       <c r="AF8">
-        <v>0.74634999999999996</v>
+        <v>0.58735000000000004</v>
       </c>
       <c r="AG8">
-        <v>0.76495000000000002</v>
+        <v>0.28025</v>
       </c>
       <c r="AH8">
-        <v>0.43654999999999999</v>
+        <v>0.1235</v>
       </c>
       <c r="AI8">
-        <v>0.36070000000000002</v>
+        <v>0.52375000000000005</v>
       </c>
       <c r="AJ8">
-        <v>0.32769999999999999</v>
+        <v>0.68005000000000004</v>
       </c>
       <c r="AK8">
-        <v>0.31225000000000003</v>
+        <v>0.36670000000000003</v>
       </c>
       <c r="AL8">
-        <v>0.45574999999999999</v>
+        <v>0.59294999999999998</v>
       </c>
       <c r="AM8">
-        <v>0.34499999999999997</v>
+        <v>0.40465000000000001</v>
       </c>
       <c r="AN8">
-        <v>0.52364999999999995</v>
+        <v>0.43340000000000001</v>
       </c>
       <c r="AO8">
-        <v>0.74770000000000003</v>
+        <v>0.4138</v>
       </c>
       <c r="AP8">
-        <v>0.43719999999999998</v>
+        <v>0.12055</v>
       </c>
       <c r="AQ8">
-        <v>0.32145000000000001</v>
+        <v>0.68915000000000004</v>
       </c>
       <c r="AR8">
-        <v>0.7319</v>
+        <v>0.70240000000000002</v>
       </c>
       <c r="AS8">
-        <v>0.83584999999999998</v>
+        <v>0.43905</v>
       </c>
       <c r="AT8">
-        <v>0.75714999999999999</v>
+        <v>0.83645000000000003</v>
       </c>
       <c r="AU8">
-        <v>0.56274999999999997</v>
+        <v>0.42415000000000003</v>
       </c>
       <c r="AV8">
-        <v>0.55620000000000003</v>
+        <v>0.45265</v>
       </c>
       <c r="AW8">
-        <v>0.70989999999999998</v>
+        <v>0.1585</v>
       </c>
       <c r="AX8">
-        <v>0.59845000000000004</v>
+        <v>0.41615000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.50004999999999999</v>
+        <v>0.32305</v>
       </c>
       <c r="B9">
-        <v>0.67584999999999995</v>
+        <v>0.32850000000000001</v>
       </c>
       <c r="C9">
-        <v>0.51315</v>
+        <v>0.6008</v>
       </c>
       <c r="D9">
-        <v>0.58015000000000005</v>
+        <v>0.94615000000000005</v>
       </c>
       <c r="E9">
-        <v>0.35075000000000001</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="F9">
-        <v>0.71135000000000004</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="G9">
-        <v>8.1600000000000006E-2</v>
+        <v>0.65469999999999995</v>
       </c>
       <c r="H9">
-        <v>0.50385000000000002</v>
+        <v>0.47420000000000001</v>
       </c>
       <c r="I9">
-        <v>0.43264999999999998</v>
+        <v>0.40884999999999999</v>
       </c>
       <c r="J9">
-        <v>0.75800000000000001</v>
+        <v>0.39589999999999997</v>
       </c>
       <c r="K9">
-        <v>0.60834999999999995</v>
+        <v>0.31414999999999998</v>
       </c>
       <c r="L9">
-        <v>0.30514999999999998</v>
+        <v>0.47384999999999999</v>
       </c>
       <c r="M9">
-        <v>0.74495</v>
+        <v>0.79454999999999998</v>
       </c>
       <c r="N9">
-        <v>0.61355000000000004</v>
+        <v>0.35449999999999998</v>
       </c>
       <c r="O9">
-        <v>0.89080000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="P9">
-        <v>0.49</v>
+        <v>0.25309999999999999</v>
       </c>
       <c r="Q9">
-        <v>0.42580000000000001</v>
+        <v>0.87734999999999996</v>
       </c>
       <c r="R9">
-        <v>0.82765</v>
+        <v>0.58904999999999996</v>
       </c>
       <c r="S9">
-        <v>0.22714999999999999</v>
+        <v>0.71379999999999999</v>
       </c>
       <c r="T9">
-        <v>0.81305000000000005</v>
+        <v>0.75229999999999997</v>
       </c>
       <c r="U9">
-        <v>0.83579999999999999</v>
+        <v>0.98734999999999995</v>
       </c>
       <c r="V9">
-        <v>0.55445</v>
+        <v>0.42154999999999998</v>
       </c>
       <c r="W9">
-        <v>0.45124999999999998</v>
+        <v>0.53915000000000002</v>
       </c>
       <c r="X9">
-        <v>0.63915</v>
+        <v>0.54984999999999995</v>
       </c>
       <c r="Y9">
-        <v>0.76585000000000003</v>
+        <v>0.41170000000000001</v>
       </c>
       <c r="Z9">
-        <v>0.58020000000000005</v>
+        <v>0.57415000000000005</v>
       </c>
       <c r="AA9">
-        <v>0.48385</v>
+        <v>0.58779999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.2878</v>
+        <v>0.88790000000000002</v>
       </c>
       <c r="AC9">
-        <v>0.85665000000000002</v>
+        <v>0.75495000000000001</v>
       </c>
       <c r="AD9">
-        <v>0.57574999999999998</v>
+        <v>0.52964999999999995</v>
       </c>
       <c r="AE9">
-        <v>0.43725000000000003</v>
+        <v>0.34820000000000001</v>
       </c>
       <c r="AF9">
-        <v>0.67915000000000003</v>
+        <v>0.498</v>
       </c>
       <c r="AG9">
-        <v>0.70194999999999996</v>
+        <v>0.29360000000000003</v>
       </c>
       <c r="AH9">
-        <v>0.21325</v>
+        <v>0.31114999999999998</v>
       </c>
       <c r="AI9">
-        <v>0.52534999999999998</v>
+        <v>0.47585</v>
       </c>
       <c r="AJ9">
-        <v>0.46245000000000003</v>
+        <v>0.60524999999999995</v>
       </c>
       <c r="AK9">
-        <v>0.64349999999999996</v>
+        <v>0.22725000000000001</v>
       </c>
       <c r="AL9">
-        <v>0.53585000000000005</v>
+        <v>0.41994999999999999</v>
       </c>
       <c r="AM9">
-        <v>0.46615000000000001</v>
+        <v>0.7157</v>
       </c>
       <c r="AN9">
-        <v>0.51490000000000002</v>
+        <v>0.55120000000000002</v>
       </c>
       <c r="AO9">
-        <v>0.64564999999999995</v>
+        <v>0.23449999999999999</v>
       </c>
       <c r="AP9">
-        <v>0.47305000000000003</v>
+        <v>0.30164999999999997</v>
       </c>
       <c r="AQ9">
-        <v>0.18225</v>
+        <v>0.46525</v>
       </c>
       <c r="AR9">
-        <v>0.67689999999999995</v>
+        <v>0.60214999999999996</v>
       </c>
       <c r="AS9">
-        <v>0.8569</v>
+        <v>0.69155</v>
       </c>
       <c r="AT9">
-        <v>0.75155000000000005</v>
+        <v>0.83884999999999998</v>
       </c>
       <c r="AU9">
-        <v>0.41365000000000002</v>
+        <v>0.15609999999999999</v>
       </c>
       <c r="AV9">
-        <v>0.78464999999999996</v>
+        <v>0.58660000000000001</v>
       </c>
       <c r="AW9">
-        <v>0.56399999999999995</v>
+        <v>0.30025000000000002</v>
       </c>
       <c r="AX9">
-        <v>0.76734999999999998</v>
+        <v>0.2409</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.47075</v>
+        <v>0.1903</v>
       </c>
       <c r="B10">
-        <v>0.57110000000000005</v>
+        <v>0.30435000000000001</v>
       </c>
       <c r="C10">
-        <v>0.47234999999999999</v>
+        <v>0.62614999999999998</v>
       </c>
       <c r="D10">
-        <v>0.77910000000000001</v>
+        <v>0.78835</v>
       </c>
       <c r="E10">
-        <v>0.37524999999999997</v>
+        <v>0.70179999999999998</v>
       </c>
       <c r="F10">
-        <v>0.90139999999999998</v>
+        <v>0.79435</v>
       </c>
       <c r="G10">
-        <v>2.8850000000000001E-2</v>
+        <v>0.59055000000000002</v>
       </c>
       <c r="H10">
-        <v>0.58745000000000003</v>
+        <v>0.28470000000000001</v>
       </c>
       <c r="I10">
-        <v>0.62180000000000002</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="J10">
-        <v>0.79379999999999995</v>
+        <v>0.43564999999999998</v>
       </c>
       <c r="K10">
-        <v>0.6169</v>
+        <v>0.29054999999999997</v>
       </c>
       <c r="L10">
-        <v>0.26624999999999999</v>
+        <v>0.74295</v>
       </c>
       <c r="M10">
-        <v>0.69769999999999999</v>
+        <v>0.74370000000000003</v>
       </c>
       <c r="N10">
-        <v>0.57030000000000003</v>
+        <v>0.36585000000000001</v>
       </c>
       <c r="O10">
-        <v>0.87024999999999997</v>
+        <v>0.35070000000000001</v>
       </c>
       <c r="P10">
-        <v>0.4163</v>
+        <v>0.12559999999999999</v>
       </c>
       <c r="Q10">
-        <v>0.4239</v>
+        <v>0.85780000000000001</v>
       </c>
       <c r="R10">
-        <v>0.68015000000000003</v>
+        <v>0.57909999999999995</v>
       </c>
       <c r="S10">
-        <v>0.27079999999999999</v>
+        <v>0.66354999999999997</v>
       </c>
       <c r="T10">
-        <v>0.71435000000000004</v>
+        <v>0.79584999999999995</v>
       </c>
       <c r="U10">
-        <v>0.78205000000000002</v>
+        <v>0.91020000000000001</v>
       </c>
       <c r="V10">
-        <v>0.79339999999999999</v>
+        <v>0.504</v>
       </c>
       <c r="W10">
-        <v>0.46265000000000001</v>
+        <v>0.56515000000000004</v>
       </c>
       <c r="X10">
-        <v>0.81154999999999999</v>
+        <v>0.67490000000000006</v>
       </c>
       <c r="Y10">
-        <v>0.56559999999999999</v>
+        <v>0.26374999999999998</v>
       </c>
       <c r="Z10">
-        <v>0.58435000000000004</v>
+        <v>0.58584999999999998</v>
       </c>
       <c r="AA10">
-        <v>0.48914999999999997</v>
+        <v>0.29935</v>
       </c>
       <c r="AB10">
-        <v>0.31640000000000001</v>
+        <v>0.74955000000000005</v>
       </c>
       <c r="AC10">
-        <v>0.71909999999999996</v>
+        <v>0.61755000000000004</v>
       </c>
       <c r="AD10">
-        <v>0.63975000000000004</v>
+        <v>0.58015000000000005</v>
       </c>
       <c r="AE10">
-        <v>0.45884999999999998</v>
+        <v>0.37574999999999997</v>
       </c>
       <c r="AF10">
-        <v>0.746</v>
+        <v>0.3458</v>
       </c>
       <c r="AG10">
-        <v>0.75760000000000005</v>
+        <v>0.35394999999999999</v>
       </c>
       <c r="AH10">
-        <v>0.16245000000000001</v>
+        <v>0.41055000000000003</v>
       </c>
       <c r="AI10">
-        <v>0.56540000000000001</v>
+        <v>0.59389999999999998</v>
       </c>
       <c r="AJ10">
-        <v>0.68210000000000004</v>
+        <v>0.45274999999999999</v>
       </c>
       <c r="AK10">
-        <v>0.69564999999999999</v>
+        <v>0.16525000000000001</v>
       </c>
       <c r="AL10">
-        <v>0.64524999999999999</v>
+        <v>0.42804999999999999</v>
       </c>
       <c r="AM10">
-        <v>0.57230000000000003</v>
+        <v>0.85085</v>
       </c>
       <c r="AN10">
-        <v>0.44845000000000002</v>
+        <v>0.77159999999999995</v>
       </c>
       <c r="AO10">
-        <v>0.57874999999999999</v>
+        <v>0.16475000000000001</v>
       </c>
       <c r="AP10">
-        <v>0.48515000000000003</v>
+        <v>0.47870000000000001</v>
       </c>
       <c r="AQ10">
-        <v>0.26479999999999998</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="AR10">
-        <v>0.58440000000000003</v>
+        <v>0.52159999999999995</v>
       </c>
       <c r="AS10">
-        <v>0.76780000000000004</v>
+        <v>0.38719999999999999</v>
       </c>
       <c r="AT10">
-        <v>0.67905000000000004</v>
+        <v>0.65080000000000005</v>
       </c>
       <c r="AU10">
-        <v>0.38929999999999998</v>
+        <v>0.1202</v>
       </c>
       <c r="AV10">
-        <v>0.61850000000000005</v>
+        <v>0.49990000000000001</v>
       </c>
       <c r="AW10">
-        <v>0.37225000000000003</v>
+        <v>0.27584999999999998</v>
       </c>
       <c r="AX10">
-        <v>0.55825000000000002</v>
+        <v>0.19275</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.40649999999999997</v>
+        <v>0.64524999999999999</v>
       </c>
       <c r="B11">
-        <v>0.34025</v>
+        <v>0.60224999999999995</v>
       </c>
       <c r="C11">
-        <v>0.19439999999999999</v>
+        <v>0.68089999999999995</v>
       </c>
       <c r="D11">
-        <v>0.53420000000000001</v>
+        <v>0.69889999999999997</v>
       </c>
       <c r="E11">
-        <v>0.51090000000000002</v>
+        <v>0.80105000000000004</v>
       </c>
       <c r="F11">
-        <v>0.72045000000000003</v>
+        <v>0.70425000000000004</v>
       </c>
       <c r="G11">
-        <v>1.4999999999999999E-2</v>
+        <v>0.64490000000000003</v>
       </c>
       <c r="H11">
-        <v>0.28584999999999999</v>
+        <v>0.497</v>
       </c>
       <c r="I11">
-        <v>0.56369999999999998</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="J11">
-        <v>0.73865000000000003</v>
+        <v>0.42809999999999998</v>
       </c>
       <c r="K11">
-        <v>0.54374999999999996</v>
+        <v>0.35054999999999997</v>
       </c>
       <c r="L11">
-        <v>0.4264</v>
+        <v>0.41120000000000001</v>
       </c>
       <c r="M11">
-        <v>0.65895000000000004</v>
+        <v>0.72330000000000005</v>
       </c>
       <c r="N11">
-        <v>0.58774999999999999</v>
+        <v>0.47049999999999997</v>
       </c>
       <c r="O11">
-        <v>0.80364999999999998</v>
+        <v>0.33139999999999997</v>
       </c>
       <c r="P11">
-        <v>0.34634999999999999</v>
+        <v>0.17469999999999999</v>
       </c>
       <c r="Q11">
-        <v>0.34839999999999999</v>
+        <v>0.80525000000000002</v>
       </c>
       <c r="R11">
-        <v>0.70920000000000005</v>
+        <v>0.65649999999999997</v>
       </c>
       <c r="S11">
-        <v>0.32314999999999999</v>
+        <v>0.6694</v>
       </c>
       <c r="T11">
-        <v>0.60470000000000002</v>
+        <v>0.76424999999999998</v>
       </c>
       <c r="U11">
-        <v>0.92459999999999998</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="V11">
-        <v>0.55945</v>
+        <v>0.57669999999999999</v>
       </c>
       <c r="W11">
-        <v>0.58004999999999995</v>
+        <v>0.50344999999999995</v>
       </c>
       <c r="X11">
-        <v>0.68689999999999996</v>
+        <v>0.64680000000000004</v>
       </c>
       <c r="Y11">
-        <v>0.54320000000000002</v>
+        <v>0.11724999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.68130000000000002</v>
+        <v>0.68959999999999999</v>
       </c>
       <c r="AA11">
-        <v>0.74250000000000005</v>
+        <v>0.2213</v>
       </c>
       <c r="AB11">
-        <v>0.40484999999999999</v>
+        <v>0.58720000000000006</v>
       </c>
       <c r="AC11">
-        <v>0.65890000000000004</v>
+        <v>0.74345000000000006</v>
       </c>
       <c r="AD11">
-        <v>0.52990000000000004</v>
+        <v>0.59275</v>
       </c>
       <c r="AE11">
-        <v>0.54469999999999996</v>
+        <v>0.46074999999999999</v>
       </c>
       <c r="AF11">
-        <v>0.69094999999999995</v>
+        <v>0.26724999999999999</v>
       </c>
       <c r="AG11">
-        <v>0.77775000000000005</v>
+        <v>0.45750000000000002</v>
       </c>
       <c r="AH11">
-        <v>0.1671</v>
+        <v>0.48685</v>
       </c>
       <c r="AI11">
-        <v>0.52470000000000006</v>
+        <v>0.54579999999999995</v>
       </c>
       <c r="AJ11">
-        <v>0.62365000000000004</v>
+        <v>0.35104999999999997</v>
       </c>
       <c r="AK11">
-        <v>0.69494999999999996</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="AL11">
-        <v>0.7056</v>
+        <v>0.70535000000000003</v>
       </c>
       <c r="AM11">
-        <v>0.59375</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="AN11">
-        <v>0.38014999999999999</v>
+        <v>0.62785000000000002</v>
       </c>
       <c r="AO11">
-        <v>0.70194999999999996</v>
+        <v>0.3085</v>
       </c>
       <c r="AP11">
-        <v>0.46389999999999998</v>
+        <v>0.70609999999999995</v>
       </c>
       <c r="AQ11">
-        <v>0.26500000000000001</v>
+        <v>0.62665000000000004</v>
       </c>
       <c r="AR11">
-        <v>0.75560000000000005</v>
+        <v>0.54125000000000001</v>
       </c>
       <c r="AS11">
-        <v>0.56559999999999999</v>
+        <v>0.63285000000000002</v>
       </c>
       <c r="AT11">
-        <v>0.69115000000000004</v>
+        <v>0.61309999999999998</v>
       </c>
       <c r="AU11">
-        <v>0.31759999999999999</v>
+        <v>0.14460000000000001</v>
       </c>
       <c r="AV11">
-        <v>0.67430000000000001</v>
+        <v>0.57289999999999996</v>
       </c>
       <c r="AW11">
-        <v>0.4451</v>
+        <v>0.33755000000000002</v>
       </c>
       <c r="AX11">
-        <v>0.40434999999999999</v>
+        <v>8.3150000000000002E-2</v>
       </c>
     </row>
   </sheetData>
